--- a/BayesianFitForecast/SanFrancisco.xlsx
+++ b/BayesianFitForecast/SanFrancisco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\Georgia State University\Research\Gerardo\New approach\My own\Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF826151-8631-4CFE-B115-5BBA1BDB0D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26980EAB-4B0B-4DCD-B628-913514CB34B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC7B9E69-69E5-4C10-889C-B3DAADFB1140}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{BC7B9E69-69E5-4C10-889C-B3DAADFB1140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>days</t>
   </si>
   <si>
-    <t>cases</t>
+    <t>cases1</t>
+  </si>
+  <si>
+    <t>cases2</t>
   </si>
 </sst>
 </file>
@@ -396,523 +399,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA0178-4B73-4DD2-AC96-071E03846282}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>438</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>510</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>698</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>689</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>856</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1104</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1189</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1190</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1143</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2058</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>1943</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>2319</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>1916</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>1443</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1424</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>1450</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>1481</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>672</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>557</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>467</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>385</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>379</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>457</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>305</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>337</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>234</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>240</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
+        <v>19</v>
+      </c>
+      <c r="C64">
         <v>19</v>
       </c>
     </row>

--- a/BayesianFitForecast/SanFrancisco.xlsx
+++ b/BayesianFitForecast/SanFrancisco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26980EAB-4B0B-4DCD-B628-913514CB34B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29FEF2-AB83-4EC9-80D1-FAB7D2BBC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{BC7B9E69-69E5-4C10-889C-B3DAADFB1140}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC7B9E69-69E5-4C10-889C-B3DAADFB1140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>days</t>
   </si>
   <si>
     <t>cases1</t>
-  </si>
-  <si>
-    <t>cases2</t>
   </si>
 </sst>
 </file>
@@ -399,715 +396,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA0178-4B73-4DD2-AC96-071E03846282}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>57</v>
       </c>
-      <c r="C16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>48</v>
       </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>58</v>
       </c>
-      <c r="C18">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>124</v>
       </c>
-      <c r="C19">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>150</v>
       </c>
-      <c r="C20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>201</v>
       </c>
-      <c r="C21">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>320</v>
       </c>
-      <c r="C22">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>438</v>
       </c>
-      <c r="C23">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>510</v>
       </c>
-      <c r="C24">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>698</v>
       </c>
-      <c r="C25">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>689</v>
       </c>
-      <c r="C26">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>856</v>
       </c>
-      <c r="C27">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1104</v>
       </c>
-      <c r="C28">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1189</v>
       </c>
-      <c r="C29">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1190</v>
       </c>
-      <c r="C30">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1143</v>
       </c>
-      <c r="C31">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2058</v>
       </c>
-      <c r="C32">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>1943</v>
       </c>
-      <c r="C33">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>2319</v>
       </c>
-      <c r="C34">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>1916</v>
       </c>
-      <c r="C35">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>1443</v>
       </c>
-      <c r="C36">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1424</v>
       </c>
-      <c r="C37">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>1450</v>
       </c>
-      <c r="C38">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>1481</v>
       </c>
-      <c r="C39">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>672</v>
       </c>
-      <c r="C40">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>557</v>
       </c>
-      <c r="C41">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>467</v>
       </c>
-      <c r="C42">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>385</v>
       </c>
-      <c r="C43">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>379</v>
       </c>
-      <c r="C44">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>457</v>
       </c>
-      <c r="C45">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>305</v>
       </c>
-      <c r="C46">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>337</v>
       </c>
-      <c r="C47">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>221</v>
       </c>
-      <c r="C48">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>234</v>
       </c>
-      <c r="C49">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>115</v>
       </c>
-      <c r="C50">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>132</v>
       </c>
-      <c r="C51">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>185</v>
       </c>
-      <c r="C52">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>240</v>
       </c>
-      <c r="C53">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>104</v>
       </c>
-      <c r="C55">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>36</v>
       </c>
-      <c r="C57">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>38</v>
       </c>
-      <c r="C58">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>26</v>
       </c>
-      <c r="C59">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>34</v>
       </c>
-      <c r="C60">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>36</v>
       </c>
-      <c r="C61">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>50</v>
       </c>
-      <c r="C62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <v>43</v>
       </c>
-      <c r="C63">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>19</v>
-      </c>
-      <c r="C64">
         <v>19</v>
       </c>
     </row>
